--- a/docs/ST3a/ST3a_02.08.24_output.xlsx
+++ b/docs/ST3a/ST3a_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,704 +505,837 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731316761.4400659</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731316768.0819452</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316761.4400659.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316768.0819452.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.58</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>284.52</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.060000000000002</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731316769.3245142</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731316776.0680034</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316769.3245142.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316776.0680034.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>284.96</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>285.99</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-1.03000000000003</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731316776.2036397</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731316784.862189</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316776.2036397.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731316784.862189.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.15</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>286.26</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.110000000000014</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731316799.6713564</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731316814.2806966</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731316799.6713564.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731316814.2806966.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>130.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>131.17</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.8999999999999773</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731316814.2956564</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731316814.2956564.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731316814.2956564.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>131.17</v>
       </c>
-      <c r="J7" t="n">
-        <v>131.17</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>131.29</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731316817.3044045</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731316826.3207076</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731316817.3044045.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731316826.3207076.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>6684</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>6610</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>74</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731316828.0739348</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731316835.410076</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731316828.0739348.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731316835.410076.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6622.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6614</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>8.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731316835.4240108</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731316838.6726089</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731316835.4240108.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731316838.6726089.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6614</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6604</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731316848.6767876</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731316851.0782385</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731316848.6767876.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731316851.0782385.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>507.6</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>508.55</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.9499999999999886</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731316851.0941691</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731316857.3850243</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731316851.0941691.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731316857.3850243.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>508.55</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>504</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>4.550000000000011</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731316861.440891</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731316861.440891.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731316861.440891.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>505.9</v>
       </c>
-      <c r="J13" t="n">
-        <v>505.9</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="L13" t="n">
+        <v>504.95</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.9499999999999886</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731316873.861519</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731316892.0348108</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316873.861519.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316892.0348108.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>229.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>229.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731316892.0497766</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731316893.5396082</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316892.0497766.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731316893.5396082.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>229.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>230.52</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.02000000000001</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731316901.1576104</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731316901.1576104.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731316901.1576104.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>230.16</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>230.16</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1195,138 +1343,165 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731316903.5767353</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731316916.9739246</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316903.5767353.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316916.9739246.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1030.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1022</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-8.400000000000091</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731316917.1086113</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731316921.807317</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316917.1086113.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731316921.807317.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1023.6</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1021</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.600000000000023</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731316930.9070055</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731316930.9070055.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731316930.9070055.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1020.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1334,97 +1509,115 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731316955.2624075</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731316964.0471988</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731316955.2624075.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731316964.0471988.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>128.16</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>127.78</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731316966.4816842</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731316971.8880146</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731316966.4816842.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731316971.8880146.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>164.68</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>164.68</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1432,277 +1625,331 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731316984.9008312</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731316992.1149442</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731316984.9008312.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731316992.1149442.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>165.1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>165.18</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731316992.2581577</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731316992.2581577.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731316992.2581577.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>165.26</v>
       </c>
-      <c r="J23" t="n">
-        <v>165.26</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+      <c r="L23" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.4399999999999977</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731316994.1565046</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731316999.5502794</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731316994.1565046.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731316999.5502794.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>50.605</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>50.305</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731317004.089572</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731317011.622293</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317004.089572.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317011.622293.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>50.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>50.28</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.1199999999999974</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731317014.1536958</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731317016.4800618</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317014.1536958.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731317016.4800618.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>50.315</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>50.295</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731317023.3735633</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731317023.3735633.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731317023.3735633.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>50.39</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>50.39</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,1143 +1957,1359 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731317040.8040285</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731317043.5972462</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317040.8040285.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731317043.5972462.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1402.8</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1401.8</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731317043.6621861</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731317043.6621861.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731317043.6621861.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1397.8</v>
       </c>
-      <c r="J29" t="n">
-        <v>1397.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>1405.4</v>
+      </c>
+      <c r="M29" t="n">
+        <v>7.600000000000136</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731317056.926522</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731317059.4222403</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317056.926522.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317059.4222403.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>60.7</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>60.74</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731317072.652572</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731317079.9190714</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317072.652572.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731317079.9190714.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>60.29</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.44</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731317105.888315</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731317111.8333783</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317105.888315.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/SELG1731317111.8333783.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>57.07</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>56.81</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.259999999999998</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731317115.7430215</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731317119.9363675</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317115.7430215.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317119.9363675.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>143.06</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>143.18</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731317123.7026603</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731317127.8962822</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317123.7026603.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317127.8962822.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>142.88</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>143.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2199999999999989</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731317127.9102483</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731317134.5657756</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317127.9102483.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317134.5657756.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>143.1</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>144.3</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-1.200000000000017</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731317134.5807106</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731317135.3458962</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317134.5807106.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731317135.3458962.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>144.3</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>145.44</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>1.139999999999986</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731317145.779812</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731317157.9314804</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317145.779812.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317157.9314804.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>20.885</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>20.847</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.03800000000000026</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731317162.0407462</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731317168.373856</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317162.0407462.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731317168.373856.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>20.78</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>20.872</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.09199999999999875</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731317187.6719995</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731317194.340191</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731317187.6719995.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731317194.340191.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>666.25</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>673.6</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-7.350000000000023</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731317198.4782088</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731317198.4782088.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731317198.4782088.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>676.45</v>
       </c>
-      <c r="J40" t="n">
-        <v>676.45</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
+      <c r="L40" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731317200.618534</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731317208.980813</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731317200.618534.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1731317208.980813.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.09932000000000001</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.09970000000000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.0003800000000000053</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731317236.8935063</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731317239.5204625</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731317236.8935063.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731317239.5204625.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.5982000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.6016</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.003399999999999959</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731317247.895633</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731317252.296796</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731317247.895633.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731317252.296796.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>0.6024</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.602</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.000400000000000067</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731317252.36239</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731317252.36239.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731317252.36239.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>0.6021000000000001</v>
       </c>
-      <c r="J44" t="n">
-        <v>0.6021000000000001</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>0.6022</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9.999999999987796e-05</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731317252.984717</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731317257.1225514</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317252.984717.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317257.1225514.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>2995.05</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>2986.4</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>8.650000000000091</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731317258.8621752</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731317262.762111</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317258.8621752.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317262.762111.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>2974.85</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>2966.8</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>8.049999999999727</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731317265.4000895</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731317267.3255405</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317265.4000895.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317267.3255405.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>2961.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>2963.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731317269.5527604</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731317271.9470587</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317269.5527604.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317271.9470587.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>2967.3</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>2979.7</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-12.39999999999964</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731317271.962046</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731317278.0856395</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317271.962046.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731317278.0856395.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>2979.7</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>2963.2</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-16.5</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731317283.2391608</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731317286.7590551</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731317283.2391608.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731317286.7590551.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>34.44</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>34.545</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.105000000000004</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731317301.6134927</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731317301.6134927.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731317301.6134927.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>34.22</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>34.22</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2861,7 +3324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2885,6 +3348,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2898,6 +3376,15 @@
       <c r="C2" t="n">
         <v>5</v>
       </c>
+      <c r="D2" t="n">
+        <v>-2.039999999999964</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.3399999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2911,6 +3398,15 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2924,6 +3420,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.04000000000000092</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2937,6 +3442,15 @@
       <c r="C5" t="n">
         <v>3</v>
       </c>
+      <c r="D5" t="n">
+        <v>-1.933333333333356</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.5700000000000001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2950,6 +3464,15 @@
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.3799999999999955</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2958,11 +3481,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.003800000000000026</v>
+        <v>0.003899999999999904</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.001299999999999968</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2976,6 +3508,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2989,6 +3530,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.3733333333333348</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2997,11 +3547,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>4.550000000000011</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>1.51666666666667</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8899999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3010,11 +3569,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08000000000001251</v>
+        <v>-0.3599999999999852</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
+      <c r="D11" t="n">
+        <v>-0.1199999999999951</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3023,11 +3591,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.350000000000023</v>
+        <v>-6.350000000000023</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>-3.175000000000011</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.9499999999999998</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.47</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3041,6 +3618,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.05250000000000199</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3054,6 +3640,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.02699999999999925</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3067,6 +3662,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.09499999999999886</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3075,11 +3679,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.8999999999999773</v>
+        <v>-0.7799999999999727</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.3899999999999864</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3088,11 +3701,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>8.600000000000136</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>4.300000000000068</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3106,6 +3728,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.3799999999999955</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3119,6 +3750,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.259999999999998</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3132,6 +3772,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.0003800000000000053</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.38</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3145,6 +3794,11 @@
       <c r="C21" t="n">
         <v>0</v>
       </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
